--- a/자유수강권자 환불/컴퓨터(교재).xlsx
+++ b/자유수강권자 환불/컴퓨터(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>주야</t>
   </si>
@@ -556,9 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -871,16 +873,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -897,13 +899,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -923,10 +925,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -946,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -969,10 +971,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -989,13 +991,13 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1015,10 +1017,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1038,10 +1040,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1058,13 +1060,13 @@
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1081,13 +1083,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1107,38 +1109,15 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.5">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
